--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koenid\Source\Repos\RemoHelpDesk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="645" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -67,13 +72,16 @@
   </si>
   <si>
     <t>Der Support-Mitarbeiter kann CMD Befehle eingeben welche auf dem User-PC ausgeführt werden</t>
+  </si>
+  <si>
+    <t>User klickt nur auf ein Connect Button, Verbindung wird automatisch hergestellt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +174,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,9 +226,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +260,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,15 +471,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -473,12 +491,12 @@
     <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -507,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -522,7 +540,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="5" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -541,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="6" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -558,7 +576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -575,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -592,7 +610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="9" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -605,8 +623,11 @@
         <f t="shared" si="0"/>
         <v>42204.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -620,7 +641,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="11" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -634,7 +655,7 @@
         <v>42239.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -642,7 +663,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="13" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -650,7 +671,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="14" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -658,7 +679,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="15" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -666,7 +687,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="80.099999999999994" customHeight="1">
+    <row r="16" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -674,7 +695,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -682,7 +703,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -690,7 +711,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -698,7 +719,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -706,7 +727,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -714,7 +735,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -722,7 +743,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1">
+    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -730,7 +751,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1">
+    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -738,14 +759,14 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1">
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="45" customHeight="1">
+    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -753,37 +774,33 @@
       <c r="E26" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3">
-    <filterColumn colId="2"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A3:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koenid\Source\Repos\RemoHelpDesk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="645" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -75,6 +70,9 @@
   </si>
   <si>
     <t>User klickt nur auf ein Connect Button, Verbindung wird automatisch hergestellt</t>
+  </si>
+  <si>
+    <t>Es fehlen Namen zur Identifikation wer was geschrieben hat</t>
   </si>
 </sst>
 </file>
@@ -186,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,9 +224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,8 +473,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +555,9 @@
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="645" windowWidth="15480" windowHeight="11640"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Es fehlen Namen zur Identifikation wer was geschrieben hat</t>
+  </si>
+  <si>
+    <t>Der User kann erkennen wer was geschrieben hat (Absender/Empfänger).</t>
+  </si>
+  <si>
+    <t>Der User kann keine visuellen Fehler mehr in der Scrollbar erkennen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -258,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -293,7 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -469,15 +473,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -489,12 +493,12 @@
     <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -523,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -538,7 +542,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -560,9 +564,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="8">
@@ -577,10 +581,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D11" si="1">E6</f>
@@ -591,186 +593,141 @@
         <v>42169.5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>42169.5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>42187</v>
+        <v>42180</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>42187</v>
+        <v>42180</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>42204.5</v>
+        <v>42197.5</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>42204.5</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>42222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
-        <v>42222</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>42239.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
+    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
+    <row r="14" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
+    <row r="15" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:9" ht="80.099999999999994" customHeight="1">
+      <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
+    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
+    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A18" s="6"/>
       <c r="B18" s="10"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
+    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
+    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A20" s="6"/>
       <c r="B20" s="10"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
+    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A21" s="6"/>
       <c r="B21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
+    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A22" s="6"/>
       <c r="B22" s="10"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
+    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A23" s="6"/>
       <c r="B23" s="10"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>20</v>
-      </c>
+    <row r="24" spans="1:5" ht="45" customHeight="1">
+      <c r="A24" s="6"/>
       <c r="B24" s="10"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
+    <row r="25" spans="1:5" ht="45" customHeight="1">
+      <c r="A25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>22</v>
-      </c>
+    <row r="26" spans="1:5" ht="45" customHeight="1">
+      <c r="A26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
@@ -782,26 +739,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="3645" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="4245" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,6 +219,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -250,25 +265,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,16 +273,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,6 +284,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,24 +619,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:XFD83"/>
+  <dimension ref="A1:XFD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
@@ -33427,904 +33442,913 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    <row r="6" spans="1:16384" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="D6" s="24">
+      <c r="B6" s="23"/>
+      <c r="D6" s="25">
         <v>42117</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="25">
         <v>42152</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="D7" s="13">
+      <c r="B7" s="23"/>
+      <c r="D7" s="25">
         <v>42117</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="25">
         <v>42152</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="D8" s="13">
+      <c r="B8" s="23"/>
+      <c r="D8" s="25">
         <v>42117</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="25">
         <v>42152</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="13">
+      <c r="B9" s="23"/>
+      <c r="D9" s="25">
         <v>42230</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="25">
         <v>42258</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="D10" s="13">
+      <c r="B10" s="23"/>
+      <c r="D10" s="25">
         <v>42230</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="25">
         <v>42258</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>2</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="D11" s="13">
+      <c r="B11" s="23"/>
+      <c r="D11" s="25">
         <v>42230</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="25">
         <v>42258</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="D12" s="13">
+      <c r="B12" s="23"/>
+      <c r="D12" s="25">
         <v>42230</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="25">
         <v>42258</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>2</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="D13" s="13">
+      <c r="B13" s="23"/>
+      <c r="D13" s="25">
         <v>42230</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="25">
         <v>42258</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="D14" s="13">
+      <c r="B14" s="23"/>
+      <c r="D14" s="25">
         <v>42230</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="25">
         <v>42258</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>2</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="D15" s="13">
+      <c r="B15" s="23"/>
+      <c r="D15" s="25">
         <v>42230</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="25">
         <v>42258</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:16384" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>2</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="D16" s="13">
+      <c r="B16" s="23"/>
+      <c r="D16" s="25">
         <v>42230</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="25">
         <v>42258</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>2</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="D17" s="13">
+      <c r="B17" s="23"/>
+      <c r="D17" s="25">
         <v>42230</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="25">
         <v>42258</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="D18" s="14">
+      <c r="B18" s="23"/>
+      <c r="D18" s="26">
         <v>42259</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="26">
         <v>42279</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>3</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="D19" s="14">
+      <c r="B19" s="23"/>
+      <c r="D19" s="26">
         <v>42259</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="26">
         <v>42279</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+    <row r="20" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>3</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="D20" s="14">
+      <c r="B20" s="23"/>
+      <c r="D20" s="26">
         <v>42259</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="26">
         <v>42279</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>3</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="D21" s="14">
+      <c r="B21" s="23"/>
+      <c r="D21" s="26">
         <v>42259</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="26">
         <v>42279</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+    <row r="22" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>4</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="D22" s="14">
+      <c r="B22" s="23"/>
+      <c r="D22" s="26">
         <v>42282</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+    <row r="23" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+    <row r="24" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+    <row r="25" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+    <row r="26" spans="1:8" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+    <row r="27" spans="1:8" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+    <row r="28" spans="1:8" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="11"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+    <row r="29" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="23"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="11"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+    <row r="30" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="23"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+    <row r="31" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="23"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+    <row r="32" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="23"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="11"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+    <row r="33" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="11"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+    <row r="34" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="23"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="11"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+    <row r="35" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="23"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="11"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+    <row r="36" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="11"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+    <row r="37" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="23"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
-    <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="11"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+    <row r="38" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="23"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="11"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+    <row r="39" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="23"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="11"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+    <row r="40" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="23"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="11"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+    <row r="41" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="23"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="11"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+    <row r="42" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="23"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+    <row r="43" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="23"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="11"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+    <row r="44" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="23"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="11"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+    <row r="45" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="23"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="11"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+    <row r="46" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="23"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="11"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+    <row r="47" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="23"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
-    <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="11"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+    <row r="48" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
     </row>
-    <row r="49" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="11"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+    <row r="49" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="23"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="11"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+    <row r="50" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="23"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
     </row>
-    <row r="51" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="11"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+    <row r="51" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="23"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
     </row>
-    <row r="52" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="11"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+    <row r="52" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="23"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
     </row>
-    <row r="53" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="11"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+    <row r="53" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="11"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+    <row r="54" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="23"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="11"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+    <row r="55" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="23"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="11"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+    <row r="56" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="23"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="11"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+    <row r="57" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="23"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="11"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+    <row r="58" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="23"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
     </row>
-    <row r="59" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="11"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+    <row r="59" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="23"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
     </row>
-    <row r="60" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="11"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+    <row r="60" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="23"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
     </row>
-    <row r="61" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="11"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+    <row r="61" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="23"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
     </row>
-    <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="11"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+    <row r="62" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="23"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
     </row>
-    <row r="63" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="11"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+    <row r="63" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="23"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
     </row>
-    <row r="64" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="11"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+    <row r="64" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="23"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="11"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+    <row r="65" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="23"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
     </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="11"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+    <row r="66" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="23"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
     </row>
-    <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="11"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+    <row r="67" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="23"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
     </row>
-    <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="11"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+    <row r="68" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="23"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="11"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+    <row r="69" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28"/>
+      <c r="B69" s="23"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
     </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="11"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+    <row r="70" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="23"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
     </row>
-    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="11"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+    <row r="71" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="23"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
     </row>
-    <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="11"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+    <row r="72" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="23"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
     </row>
-    <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="11"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+    <row r="73" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="23"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
     </row>
-    <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="11"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+    <row r="74" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="23"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
     </row>
-    <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="11"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+    <row r="75" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="23"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
     </row>
-    <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="11"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+    <row r="76" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="23"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
     </row>
-    <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="11"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
+    <row r="77" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="23"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
     </row>
-    <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="11"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+    <row r="78" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="23"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
     </row>
-    <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="11"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+    <row r="79" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="23"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
     </row>
-    <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="11"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+    <row r="80" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="23"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
     </row>
-    <row r="81" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="11"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+    <row r="81" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="23"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
     </row>
-    <row r="82" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="11"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+    <row r="82" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="23"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="11"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
+    <row r="83" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="23"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:I5"/>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4245" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="4845" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -131,7 +131,13 @@
     <t>Der User kann  über Mikrofon kommunizieren.</t>
   </si>
   <si>
-    <t>diverse Bugfixes</t>
+    <t>diverse bugfixes</t>
+  </si>
+  <si>
+    <t>Der User kann vergangene Verbindungen sehen.</t>
+  </si>
+  <si>
+    <t>Der User kann ein Icon sehen.</t>
   </si>
 </sst>
 </file>
@@ -622,8 +628,8 @@
   <dimension ref="A1:XFD84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33785,20 +33791,30 @@
       <c r="D22" s="26">
         <v>42282</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="26">
+        <v>42328</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="26">
+        <v>42282</v>
+      </c>
+      <c r="E23" s="26">
+        <v>42328</v>
+      </c>
       <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
